--- a/code/codeForSimulations/Table4/Tab4.xlsx
+++ b/code/codeForSimulations/Table4/Tab4.xlsx
@@ -159,7 +159,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="0">
-        <v>0.13</v>
+        <v>0.070000000000000007</v>
       </c>
       <c r="F5" s="0">
         <v>0.050000000000000003</v>
@@ -168,10 +168,10 @@
         <v>0.050000000000000003</v>
       </c>
       <c r="I5" s="0">
-        <v>0.57999999999999996</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="J5" s="0">
-        <v>0.68999999999999995</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="K5" s="0">
         <v>0</v>
@@ -182,19 +182,19 @@
         <v>100</v>
       </c>
       <c r="E6" s="0">
-        <v>0.31</v>
+        <v>0.26000000000000001</v>
       </c>
       <c r="F6" s="0">
-        <v>0.20999999999999999</v>
+        <v>0</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="I6" s="0">
-        <v>0.70999999999999996</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="J6" s="0">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
